--- a/ConvertedEqual/Nebraska_Converted.xlsx
+++ b/ConvertedEqual/Nebraska_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="275">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -804,6 +804,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1201,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA221"/>
+  <dimension ref="A1:AA233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1527,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1545,7 +1581,7 @@
         <v>0.5</v>
       </c>
       <c r="AA7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -2878,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -2961,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -3044,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -3127,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.1538461538384615</v>
+        <v>0.1666666666583333</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -3210,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>0.1538461538384615</v>
+        <v>0.1666666666583333</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -3293,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>0.1538461538384615</v>
+        <v>0.1666666666583333</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -3376,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.1538461538384615</v>
+        <v>0.1666666666583333</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -3459,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.1538461538384615</v>
+        <v>0.1666666666583333</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -3542,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>0.1538461538384615</v>
+        <v>0.1666666666583333</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -3625,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.1538461538384615</v>
+        <v>0.1666666666583333</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -3708,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.1538461538384615</v>
+        <v>0.1666666666583333</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -3791,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.1538461538384615</v>
+        <v>0.1666666666583333</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -3874,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>0.1538461538384615</v>
+        <v>0.1666666666583333</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -3957,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>0.1538461538384615</v>
+        <v>0.1666666666583333</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -4040,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>0.1538461538384615</v>
+        <v>0.1666666666583333</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -4123,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.1538461538384615</v>
+        <v>0.1666666666583333</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -4206,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>0.1538461538384615</v>
+        <v>0.1666666666583333</v>
       </c>
     </row>
     <row r="41" spans="1:27">
@@ -4289,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -4372,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="AA42">
-        <v>0.5384615384461537</v>
+        <v>0.5833333333166666</v>
       </c>
     </row>
     <row r="43" spans="1:27">
@@ -4455,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="AA43">
-        <v>0.5384615384461537</v>
+        <v>0.5833333333166666</v>
       </c>
     </row>
     <row r="44" spans="1:27">
@@ -4538,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="AA44">
-        <v>0.5384615384461537</v>
+        <v>0.5833333333166666</v>
       </c>
     </row>
     <row r="45" spans="1:27">
@@ -4621,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="AA45">
-        <v>0.5384615384461537</v>
+        <v>0.5833333333166666</v>
       </c>
     </row>
     <row r="46" spans="1:27">
@@ -4704,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="AA46">
-        <v>0.5384615384461537</v>
+        <v>0.5833333333166666</v>
       </c>
     </row>
     <row r="47" spans="1:27">
@@ -4787,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="AA47">
-        <v>0.5384615384461537</v>
+        <v>0.5833333333166666</v>
       </c>
     </row>
     <row r="48" spans="1:27">
@@ -4870,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="AA48">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -4953,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="AA49">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="50" spans="1:27">
@@ -5036,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="AA50">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="51" spans="1:27">
@@ -5119,7 +5155,7 @@
         <v>1</v>
       </c>
       <c r="AA51">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="52" spans="1:27">
@@ -5202,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="AA52">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="53" spans="1:27">
@@ -5285,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="AA53">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="54" spans="1:27">
@@ -5368,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="AA54">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="55" spans="1:27">
@@ -5451,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="AA55">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="56" spans="1:27">
@@ -5534,7 +5570,7 @@
         <v>1</v>
       </c>
       <c r="AA56">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="57" spans="1:27">
@@ -5617,7 +5653,7 @@
         <v>1</v>
       </c>
       <c r="AA57">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="58" spans="1:27">
@@ -5700,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="AA58">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="59" spans="1:27">
@@ -5783,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="AA59">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="60" spans="1:27">
@@ -5866,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="AA60">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="61" spans="1:27">
@@ -5949,7 +5985,7 @@
         <v>1</v>
       </c>
       <c r="AA61">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -6032,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="AA62">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="63" spans="1:27">
@@ -6115,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="AA63">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="64" spans="1:27">
@@ -6198,7 +6234,7 @@
         <v>1</v>
       </c>
       <c r="AA64">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="65" spans="1:27">
@@ -6281,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="AA65">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="66" spans="1:27">
@@ -6364,7 +6400,7 @@
         <v>1</v>
       </c>
       <c r="AA66">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="67" spans="1:27">
@@ -6447,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="AA67">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="68" spans="1:27">
@@ -6530,7 +6566,7 @@
         <v>1</v>
       </c>
       <c r="AA68">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="69" spans="1:27">
@@ -6613,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="AA69">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="70" spans="1:27">
@@ -6696,7 +6732,7 @@
         <v>1</v>
       </c>
       <c r="AA70">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="71" spans="1:27">
@@ -6779,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="AA71">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="72" spans="1:27">
@@ -6862,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="AA72">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="73" spans="1:27">
@@ -6945,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="AA73">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="74" spans="1:27">
@@ -7028,7 +7064,7 @@
         <v>1</v>
       </c>
       <c r="AA74">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="75" spans="1:27">
@@ -7111,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="AA75">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="76" spans="1:27">
@@ -7194,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="AA76">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="77" spans="1:27">
@@ -7277,7 +7313,7 @@
         <v>1</v>
       </c>
       <c r="AA77">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="78" spans="1:27">
@@ -7360,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AA78">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="79" spans="1:27">
@@ -7443,7 +7479,7 @@
         <v>1</v>
       </c>
       <c r="AA79">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="80" spans="1:27">
@@ -7526,7 +7562,7 @@
         <v>1</v>
       </c>
       <c r="AA80">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="81" spans="1:27">
@@ -7609,7 +7645,7 @@
         <v>1</v>
       </c>
       <c r="AA81">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="82" spans="1:27">
@@ -7692,7 +7728,7 @@
         <v>1</v>
       </c>
       <c r="AA82">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="83" spans="1:27">
@@ -7775,7 +7811,7 @@
         <v>1</v>
       </c>
       <c r="AA83">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="84" spans="1:27">
@@ -7858,7 +7894,7 @@
         <v>1</v>
       </c>
       <c r="AA84">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="85" spans="1:27">
@@ -7941,7 +7977,7 @@
         <v>1</v>
       </c>
       <c r="AA85">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="86" spans="1:27">
@@ -8024,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="AA86">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="87" spans="1:27">
@@ -8107,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="AA87">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="88" spans="1:27">
@@ -8190,7 +8226,7 @@
         <v>1</v>
       </c>
       <c r="AA88">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="89" spans="1:27">
@@ -8273,7 +8309,7 @@
         <v>1</v>
       </c>
       <c r="AA89">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="90" spans="1:27">
@@ -8356,7 +8392,7 @@
         <v>1</v>
       </c>
       <c r="AA90">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="91" spans="1:27">
@@ -8439,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="AA91">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="92" spans="1:27">
@@ -8522,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="AA92">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="93" spans="1:27">
@@ -8605,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="AA93">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="94" spans="1:27">
@@ -8688,7 +8724,7 @@
         <v>1</v>
       </c>
       <c r="AA94">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="95" spans="1:27">
@@ -8771,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="AA95">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="96" spans="1:27">
@@ -8854,7 +8890,7 @@
         <v>1</v>
       </c>
       <c r="AA96">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="97" spans="1:27">
@@ -8937,7 +8973,7 @@
         <v>1</v>
       </c>
       <c r="AA97">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="98" spans="1:27">
@@ -9020,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="AA98">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="99" spans="1:27">
@@ -9103,7 +9139,7 @@
         <v>1</v>
       </c>
       <c r="AA99">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="100" spans="1:27">
@@ -9186,7 +9222,7 @@
         <v>1</v>
       </c>
       <c r="AA100">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="101" spans="1:27">
@@ -9269,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="AA101">
-        <v>0.6153846153615383</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="102" spans="1:27">
@@ -9352,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="AA102">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="103" spans="1:27">
@@ -9435,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="104" spans="1:27">
@@ -9518,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="105" spans="1:27">
@@ -9601,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="AA105">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="106" spans="1:27">
@@ -9684,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="AA106">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="107" spans="1:27">
@@ -9767,7 +9803,7 @@
         <v>0</v>
       </c>
       <c r="AA107">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="108" spans="1:27">
@@ -9850,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="109" spans="1:27">
@@ -9933,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="AA109">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="110" spans="1:27">
@@ -10016,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="AA110">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="111" spans="1:27">
@@ -10099,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="AA111">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="112" spans="1:27">
@@ -10182,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="AA112">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="113" spans="1:27">
@@ -10265,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="AA113">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="114" spans="1:27">
@@ -10348,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="AA114">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="115" spans="1:27">
@@ -10431,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="116" spans="1:27">
@@ -10514,7 +10550,7 @@
         <v>0</v>
       </c>
       <c r="AA116">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="117" spans="1:27">
@@ -10597,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="118" spans="1:27">
@@ -10680,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="119" spans="1:27">
@@ -10763,7 +10799,7 @@
         <v>0</v>
       </c>
       <c r="AA119">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="120" spans="1:27">
@@ -10846,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="AA120">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="121" spans="1:27">
@@ -10929,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="AA121">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="122" spans="1:27">
@@ -11012,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="AA122">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="123" spans="1:27">
@@ -11095,7 +11131,7 @@
         <v>0</v>
       </c>
       <c r="AA123">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="124" spans="1:27">
@@ -11178,7 +11214,7 @@
         <v>0</v>
       </c>
       <c r="AA124">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="125" spans="1:27">
@@ -11261,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="AA125">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="126" spans="1:27">
@@ -11344,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="AA126">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="127" spans="1:27">
@@ -11427,7 +11463,7 @@
         <v>0</v>
       </c>
       <c r="AA127">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="128" spans="1:27">
@@ -11510,7 +11546,7 @@
         <v>0</v>
       </c>
       <c r="AA128">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="129" spans="1:27">
@@ -11593,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="AA129">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="130" spans="1:27">
@@ -11676,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="AA130">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="131" spans="1:27">
@@ -11759,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="AA131">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="132" spans="1:27">
@@ -11842,7 +11878,7 @@
         <v>0</v>
       </c>
       <c r="AA132">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="133" spans="1:27">
@@ -11925,7 +11961,7 @@
         <v>0</v>
       </c>
       <c r="AA133">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="134" spans="1:27">
@@ -12008,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="AA134">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="135" spans="1:27">
@@ -12091,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="AA135">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="136" spans="1:27">
@@ -12174,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="AA136">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="137" spans="1:27">
@@ -12257,7 +12293,7 @@
         <v>0</v>
       </c>
       <c r="AA137">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="138" spans="1:27">
@@ -12340,7 +12376,7 @@
         <v>0</v>
       </c>
       <c r="AA138">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="139" spans="1:27">
@@ -12423,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="AA139">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="140" spans="1:27">
@@ -12506,7 +12542,7 @@
         <v>0</v>
       </c>
       <c r="AA140">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="141" spans="1:27">
@@ -12589,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="AA141">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="142" spans="1:27">
@@ -12672,7 +12708,7 @@
         <v>0</v>
       </c>
       <c r="AA142">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="143" spans="1:27">
@@ -12755,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="AA143">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="144" spans="1:27">
@@ -12838,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="AA144">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="145" spans="1:27">
@@ -12921,7 +12957,7 @@
         <v>0</v>
       </c>
       <c r="AA145">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="146" spans="1:27">
@@ -13004,7 +13040,7 @@
         <v>0</v>
       </c>
       <c r="AA146">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="147" spans="1:27">
@@ -13087,7 +13123,7 @@
         <v>0</v>
       </c>
       <c r="AA147">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="148" spans="1:27">
@@ -13170,7 +13206,7 @@
         <v>0</v>
       </c>
       <c r="AA148">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="149" spans="1:27">
@@ -13253,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="AA149">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="150" spans="1:27">
@@ -13336,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="AA150">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="151" spans="1:27">
@@ -13419,7 +13455,7 @@
         <v>0</v>
       </c>
       <c r="AA151">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="152" spans="1:27">
@@ -13502,7 +13538,7 @@
         <v>0</v>
       </c>
       <c r="AA152">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="153" spans="1:27">
@@ -13585,7 +13621,7 @@
         <v>0</v>
       </c>
       <c r="AA153">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="154" spans="1:27">
@@ -13668,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="AA154">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="155" spans="1:27">
@@ -13751,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="AA155">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="156" spans="1:27">
@@ -13834,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="AA156">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="157" spans="1:27">
@@ -13917,7 +13953,7 @@
         <v>0</v>
       </c>
       <c r="AA157">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="158" spans="1:27">
@@ -14000,7 +14036,7 @@
         <v>0</v>
       </c>
       <c r="AA158">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="159" spans="1:27">
@@ -14083,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="AA159">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="160" spans="1:27">
@@ -14166,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="AA160">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="161" spans="1:27">
@@ -14249,7 +14285,7 @@
         <v>0</v>
       </c>
       <c r="AA161">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="162" spans="1:27">
@@ -14332,7 +14368,7 @@
         <v>0</v>
       </c>
       <c r="AA162">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="163" spans="1:27">
@@ -14415,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="AA163">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="164" spans="1:27">
@@ -14498,7 +14534,7 @@
         <v>0</v>
       </c>
       <c r="AA164">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="165" spans="1:27">
@@ -14581,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="AA165">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="166" spans="1:27">
@@ -14664,7 +14700,7 @@
         <v>0</v>
       </c>
       <c r="AA166">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="167" spans="1:27">
@@ -14747,7 +14783,7 @@
         <v>0</v>
       </c>
       <c r="AA167">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="168" spans="1:27">
@@ -14830,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="AA168">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="169" spans="1:27">
@@ -14913,7 +14949,7 @@
         <v>0</v>
       </c>
       <c r="AA169">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="170" spans="1:27">
@@ -14996,7 +15032,7 @@
         <v>0</v>
       </c>
       <c r="AA170">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="171" spans="1:27">
@@ -15079,7 +15115,7 @@
         <v>0</v>
       </c>
       <c r="AA171">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="172" spans="1:27">
@@ -15162,7 +15198,7 @@
         <v>0</v>
       </c>
       <c r="AA172">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="173" spans="1:27">
@@ -15245,7 +15281,7 @@
         <v>0</v>
       </c>
       <c r="AA173">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="174" spans="1:27">
@@ -15328,7 +15364,7 @@
         <v>0</v>
       </c>
       <c r="AA174">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="175" spans="1:27">
@@ -15411,7 +15447,7 @@
         <v>0</v>
       </c>
       <c r="AA175">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="176" spans="1:27">
@@ -15494,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="AA176">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="177" spans="1:27">
@@ -15577,7 +15613,7 @@
         <v>0</v>
       </c>
       <c r="AA177">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="178" spans="1:27">
@@ -15660,7 +15696,7 @@
         <v>0</v>
       </c>
       <c r="AA178">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="179" spans="1:27">
@@ -15743,7 +15779,7 @@
         <v>0</v>
       </c>
       <c r="AA179">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="180" spans="1:27">
@@ -15826,7 +15862,7 @@
         <v>0</v>
       </c>
       <c r="AA180">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="181" spans="1:27">
@@ -15909,7 +15945,7 @@
         <v>0</v>
       </c>
       <c r="AA181">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="182" spans="1:27">
@@ -15992,7 +16028,7 @@
         <v>0</v>
       </c>
       <c r="AA182">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="183" spans="1:27">
@@ -16075,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="AA183">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:27">
@@ -16158,7 +16194,7 @@
         <v>0</v>
       </c>
       <c r="AA184">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="185" spans="1:27">
@@ -16241,7 +16277,7 @@
         <v>0</v>
       </c>
       <c r="AA185">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="186" spans="1:27">
@@ -16324,7 +16360,7 @@
         <v>0</v>
       </c>
       <c r="AA186">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="187" spans="1:27">
@@ -16407,7 +16443,7 @@
         <v>0</v>
       </c>
       <c r="AA187">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="188" spans="1:27">
@@ -16490,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="AA188">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="189" spans="1:27">
@@ -16573,7 +16609,7 @@
         <v>0</v>
       </c>
       <c r="AA189">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="190" spans="1:27">
@@ -16656,7 +16692,7 @@
         <v>0</v>
       </c>
       <c r="AA190">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="191" spans="1:27">
@@ -16739,7 +16775,7 @@
         <v>0</v>
       </c>
       <c r="AA191">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="192" spans="1:27">
@@ -16822,7 +16858,7 @@
         <v>0</v>
       </c>
       <c r="AA192">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="193" spans="1:27">
@@ -16905,7 +16941,7 @@
         <v>0</v>
       </c>
       <c r="AA193">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="194" spans="1:27">
@@ -16988,7 +17024,7 @@
         <v>0</v>
       </c>
       <c r="AA194">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="195" spans="1:27">
@@ -17071,7 +17107,7 @@
         <v>0</v>
       </c>
       <c r="AA195">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="196" spans="1:27">
@@ -17154,7 +17190,7 @@
         <v>0</v>
       </c>
       <c r="AA196">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="197" spans="1:27">
@@ -17237,7 +17273,7 @@
         <v>0</v>
       </c>
       <c r="AA197">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="198" spans="1:27">
@@ -17320,7 +17356,7 @@
         <v>0</v>
       </c>
       <c r="AA198">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="199" spans="1:27">
@@ -17403,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="AA199">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="200" spans="1:27">
@@ -17486,7 +17522,7 @@
         <v>0</v>
       </c>
       <c r="AA200">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="201" spans="1:27">
@@ -17569,7 +17605,7 @@
         <v>0</v>
       </c>
       <c r="AA201">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="202" spans="1:27">
@@ -17652,7 +17688,7 @@
         <v>0</v>
       </c>
       <c r="AA202">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="203" spans="1:27">
@@ -17735,7 +17771,7 @@
         <v>0</v>
       </c>
       <c r="AA203">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="204" spans="1:27">
@@ -17818,7 +17854,7 @@
         <v>0</v>
       </c>
       <c r="AA204">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="205" spans="1:27">
@@ -17901,7 +17937,7 @@
         <v>0</v>
       </c>
       <c r="AA205">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="206" spans="1:27">
@@ -17984,7 +18020,7 @@
         <v>0</v>
       </c>
       <c r="AA206">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="207" spans="1:27">
@@ -18067,7 +18103,7 @@
         <v>0</v>
       </c>
       <c r="AA207">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="208" spans="1:27">
@@ -18150,7 +18186,7 @@
         <v>0</v>
       </c>
       <c r="AA208">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="209" spans="1:27">
@@ -18233,7 +18269,7 @@
         <v>0</v>
       </c>
       <c r="AA209">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="210" spans="1:27">
@@ -18316,7 +18352,7 @@
         <v>0</v>
       </c>
       <c r="AA210">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="211" spans="1:27">
@@ -18399,7 +18435,7 @@
         <v>0</v>
       </c>
       <c r="AA211">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="212" spans="1:27">
@@ -18482,7 +18518,7 @@
         <v>0</v>
       </c>
       <c r="AA212">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="213" spans="1:27">
@@ -18565,7 +18601,7 @@
         <v>0</v>
       </c>
       <c r="AA213">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="214" spans="1:27">
@@ -18648,7 +18684,7 @@
         <v>0</v>
       </c>
       <c r="AA214">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="215" spans="1:27">
@@ -18731,7 +18767,7 @@
         <v>0</v>
       </c>
       <c r="AA215">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="216" spans="1:27">
@@ -18814,7 +18850,7 @@
         <v>0</v>
       </c>
       <c r="AA216">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="217" spans="1:27">
@@ -18897,7 +18933,7 @@
         <v>0</v>
       </c>
       <c r="AA217">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="218" spans="1:27">
@@ -18980,7 +19016,7 @@
         <v>0</v>
       </c>
       <c r="AA218">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="219" spans="1:27">
@@ -19063,7 +19099,7 @@
         <v>0</v>
       </c>
       <c r="AA219">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="220" spans="1:27">
@@ -19146,7 +19182,7 @@
         <v>0</v>
       </c>
       <c r="AA220">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="221" spans="1:27">
@@ -19229,7 +19265,1003 @@
         <v>0</v>
       </c>
       <c r="AA221">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:27">
+      <c r="A222" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27">
+      <c r="A223" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:27">
+      <c r="A224" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
+      <c r="A225" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
+      <c r="A226" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
+      <c r="A227" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
+      <c r="A228" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27">
+      <c r="A229" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27">
+      <c r="A230" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27">
+      <c r="A231" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:27">
+      <c r="A232" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:27">
+      <c r="A233" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0.1666666666666667</v>
       </c>
     </row>
   </sheetData>
